--- a/output/google_maps_data_Yogyakarta_Government_Office.xlsx
+++ b/output/google_maps_data_Yogyakarta_Government_Office.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Yogyakarta+Government+Office/@-7.8056335,110.3636606,13z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(0274) 514448</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.6</v>
+        <v>-7.800181</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.800181</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.391349</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Walikota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5764aed6dc47:0xdaa512ed06ede32a!8m2!3d-7.8001814!4d110.3913493!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F1vtt_12z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Walikota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5764aed6dc47:0xdaa512ed06ede32a!8m2!3d-7.8001814!4d110.3913493!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgESY2l0eV9jbGVya3Nfb2ZmaWNl4AEA!16s%2Fg%2F1vtt_12z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -575,25 +568,24 @@
           <t>(0274) 419714</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>-7.807847</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.807847</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.371611</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kota+Kecamatan+Gondomanan+Kelurahan+Prawirodirjan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b6e3e0f4f:0xdec1e0a7523bf5a6!8m2!3d-7.807847!4d110.3716114!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpblk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kota+Kecamatan+Gondomanan+Kelurahan+Prawirodirjan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b6e3e0f4f:0xdec1e0a7523bf5a6!8m2!3d-7.807847!4d110.3716114!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpblk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -620,25 +612,24 @@
           <t>(0274) 512688</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.792343</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.792343</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.366211</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DPRD+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5826224aba05:0x7c1af1dbb0179db9!8m2!3d-7.7923435!4d110.3662112!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6_vlnk1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DPRD+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5826224aba05:0x7c1af1dbb0179db9!8m2!3d-7.7923435!4d110.3662112!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6_vlnk1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -665,25 +656,24 @@
           <t>(0274) 373241</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.810812</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.810812</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.369454</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Balai+Pelestarian+Nilai+Budaya+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53c7aec5:0xdecd392846f59ee7!8m2!3d-7.8108122!4d110.3694535!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pztj0m63?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Balai+Pelestarian+Nilai+Budaya+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53c7aec5:0xdecd392846f59ee7!8m2!3d-7.8108122!4d110.3694535!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pztj0m63?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -706,25 +696,24 @@
           <t>(0274) 515867</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.808054</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.808054</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.371727</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pemerintah+Kota+Yogyakarta+Dinas+Permukiman+Dan+Prasarana+Wilayah+TPU+Sasanalayan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b70413035:0x42a00d5ecbd2b379!8m2!3d-7.8080544!4d110.371727!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpss37?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pemerintah+Kota+Yogyakarta+Dinas+Permukiman+Dan+Prasarana+Wilayah+TPU+Sasanalayan/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579b70413035:0x42a00d5ecbd2b379!8m2!3d-7.8080544!4d110.371727!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11b6gpss37?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -751,25 +740,24 @@
           <t>(0274) 387752</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>-7.809452</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.809452</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.369709</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Pusat+Statistik+(BPS)+Kota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579bad2574fd:0xae97bdaa7a4896d1!8m2!3d-7.8094519!4d110.369709!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzqryh0p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Pusat+Statistik+(BPS)+Kota+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579bad2574fd:0xae97bdaa7a4896d1!8m2!3d-7.8094519!4d110.369709!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzqryh0p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -796,25 +784,24 @@
           <t>(0274) 589583</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.795859</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.795859</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.366127</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BAPPEDA+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58263237e877:0xd0111d680b9bb72c!8m2!3d-7.7958592!4d110.3661268!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hd_4dgq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BAPPEDA+Daerah+Istimewa+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58263237e877:0xd0111d680b9bb72c!8m2!3d-7.7958592!4d110.3661268!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hd_4dgq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -841,25 +828,24 @@
           <t>(0274) 377747</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.809566</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.809566</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.369339</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kanwil+BPN+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53e87c41:0x1caf01959adf3201!8m2!3d-7.8095662!4d110.369339!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hm1wzz9w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kanwil+BPN+D.I.+Yogyakarta/@-7.8001814,110.3192515,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a53e87c41:0x1caf01959adf3201!8m2!3d-7.8095662!4d110.369339!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1hm1wzz9w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -886,25 +872,24 @@
           <t>(0274) 512080</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-7.782018</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.782018</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.356355</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a583dbfc91625:0xf61dff675c08398f!8m2!3d-7.7820182!4d110.3563545!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11rrzp14b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Badan+Kepegawaian+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a583dbfc91625:0xf61dff675c08398f!8m2!3d-7.7820182!4d110.3563545!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11rrzp14b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -931,25 +916,24 @@
           <t>(0274) 373444</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>-7.809995</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.809995</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.36979</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+PPID+Pemda+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a5190b79f:0xfdbf49915ef1b592!8m2!3d-7.8099952!4d110.3697903!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dxkvkfz7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+PPID+Pemda+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a5190b79f:0xfdbf49915ef1b592!8m2!3d-7.8099952!4d110.3697903!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11dxkvkfz7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -976,25 +960,24 @@
           <t>(0274) 588219</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>-7.787891</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.787891</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.358024</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58231b97dd27:0xebed93772611b9c0!8m2!3d-7.7878913!4d110.3580244!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn5rz87x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dinas+Pertanahan+Dan+Tata+Ruang+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a58231b97dd27:0xebed93772611b9c0!8m2!3d-7.7878913!4d110.3580244!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11cn5rz87x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1017,25 +1000,24 @@
           <t>(0274) 375792</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>-7.806965</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.806965</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.377778</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/DEKRANASDA+KOTA+YOGYAKARTA/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579d42c03c39:0xa6abb312ec287f63!8m2!3d-7.8069646!4d110.3777783!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bc7p95c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/DEKRANASDA+KOTA+YOGYAKARTA/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579d42c03c39:0xa6abb312ec287f63!8m2!3d-7.8069646!4d110.3777783!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11bc7p95c6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>8 tahun lalu</t>
         </is>
@@ -1062,21 +1044,20 @@
           <t>(0274) 374289</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="E15" t="n">
         <v>3.9</v>
       </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Komisi+Informasi+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a4ea08b85:0xe61b085cd876622b!8m2!3d-7.8092294!4d110.3692439!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzptp7wv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Komisi+Informasi+Daerah+Daerah+Istimewa+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a579a4ea08b85:0xe61b085cd876622b!8m2!3d-7.8092294!4d110.3692439!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzptp7wv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1099,25 +1080,24 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>-7.807225</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.807225</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.364492</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gedhong+Kantor+Parentah+Hageng/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5793e5555555:0x9ce69e369b41048f!8m2!3d-7.8072246!4d110.3644922!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzxpbpjl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gedhong+Kantor+Parentah+Hageng/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5793e5555555:0x9ce69e369b41048f!8m2!3d-7.8072246!4d110.3644922!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEXc3RhdGVfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzxpbpjl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -1136,25 +1116,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.795137</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.795137</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.366419</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gedung+Unit+IX+Kepatihan+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a59cfcac51029:0xb318c2d54e122530!8m2!3d-7.7951368!4d110.3664194!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11g1pn5sk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gedung+Unit+IX+Kepatihan+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a59cfcac51029:0xb318c2d54e122530!8m2!3d-7.7951368!4d110.3664194!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11g1pn5sk2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1174,22 +1153,21 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-7.803026</v>
+      </c>
       <c r="G18" t="n">
-        <v>-7.803026</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.366085</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/UPT+Pengelolaan+Kawasan+Cagar+Budaya/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a570047ff099b:0x992ef7a6570a9245!8m2!3d-7.8030259!4d110.3660851!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F11wwb8s3q6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1208,25 +1186,24 @@
           <t>(0274) 562811</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>-7.795246</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.795246</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.366391</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Biro+Umum+Dan+Protokol+Setda+DIY/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a582c010c4d73:0xc0dcde636f08c903!8m2!3d-7.7952464!4d110.3663912!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzy0sl8d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Biro+Umum+Dan+Protokol+Setda+DIY/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a582c010c4d73:0xc0dcde636f08c903!8m2!3d-7.7952464!4d110.3663912!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgEacmVnaW9uYWxfZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzy0sl8d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1246,22 +1223,21 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-7.811142</v>
+      </c>
       <c r="G20" t="n">
-        <v>-7.811142</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.359925</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bppo+(Balai+Pengembangan+Pemuda+%26+Olahraga)+Yogyakarta/@-7.7820182,110.2842567,13z/data=!4m10!1m2!2m1!1sYogyakarta+Government+Office!3m6!1s0x2e7a5793e5555555:0x178b70f5d48d81d5!8m2!3d-7.8111417!4d110.3599254!15sChxZb2d5YWthcnRhIEdvdmVybm1lbnQgT2ZmaWNlkgERZ292ZXJubWVudF9vZmZpY2XgAQA!16s%2Fg%2F1pzrsk7kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
